--- a/document/制作物_DB_案.xlsx
+++ b/document/制作物_DB_案.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザマスター" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <r>
       <rPr>
@@ -47,10 +47,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">氏名</t>
+    <t xml:space="preserve">ユーザー名</t>
   </si>
   <si>
     <t xml:space="preserve">部署ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パスワード</t>
   </si>
   <si>
     <t xml:space="preserve">削除フラグ</t>
@@ -269,12 +272,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,10 +302,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,31 +335,35 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1234567890</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -384,45 +395,45 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>10</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -451,48 +462,48 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>10</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -519,93 +530,93 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="6.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>27</v>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -632,50 +643,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="6.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,42 +696,42 @@
       <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>1234567890</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>34</v>
+      <c r="A4" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>35</v>
+      <c r="A5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -741,34 +752,34 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,41 +787,41 @@
         <v>1234567890</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>44</v>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>45</v>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>46</v>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>47</v>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/document/制作物_DB_案.xlsx
+++ b/document/制作物_DB_案.xlsx
@@ -12,8 +12,9 @@
     <sheet name="部署マスター" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="エリアマスター" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="部品マスター" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="入出庫データ" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="アクセスログ" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="製品マスター" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="入出庫データ" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="アクセスログ" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <r>
       <rPr>
@@ -83,13 +84,31 @@
     <t xml:space="preserve">部署名</t>
   </si>
   <si>
-    <t xml:space="preserve">工作1部</t>
+    <t xml:space="preserve">販売部</t>
   </si>
   <si>
     <t xml:space="preserve">エリアID</t>
   </si>
   <si>
-    <t xml:space="preserve">組立工場</t>
+    <t xml:space="preserve">エリア名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">城東</t>
+  </si>
+  <si>
+    <t xml:space="preserve">福生倉庫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">問屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メーカー直送</t>
+  </si>
+  <si>
+    <t xml:space="preserve">販売</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廃棄</t>
   </si>
   <si>
     <t xml:space="preserve">部品番号</t>
@@ -131,6 +150,51 @@
     <t xml:space="preserve">マスタ化？</t>
   </si>
   <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メーカー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メーカー英字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">型番</t>
+  </si>
+  <si>
+    <t xml:space="preserve">製品名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">製品名英字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジャンル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スケール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">製品シリーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">番組シリーズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">元機体名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">元機体名英字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定価</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タミヤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMIYA</t>
+  </si>
+  <si>
     <t xml:space="preserve">入出庫分類</t>
   </si>
   <si>
@@ -144,9 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve">入出庫担当ユーザーID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xxx-yyyy</t>
   </si>
   <si>
     <t xml:space="preserve">1:入庫</t>
@@ -294,6 +355,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -305,7 +426,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,7 +506,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,10 +573,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -465,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -488,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
@@ -504,6 +625,46 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -520,6 +681,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF666666"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K4"/>
@@ -543,22 +705,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -578,22 +740,22 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0</v>
@@ -613,10 +775,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -635,10 +797,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="6.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="6.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -656,22 +945,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -699,8 +988,8 @@
       <c r="C2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
+      <c r="D2" s="2" t="n">
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -726,12 +1015,12 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +1034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -767,16 +1056,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -787,10 +1076,10 @@
         <v>1234567890</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -798,30 +1087,30 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/document/制作物_DB_案.xlsx
+++ b/document/制作物_DB_案.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザマスター" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="製品マスター" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="入出庫データ" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="アクセスログ" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="その他マスター" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
   <si>
     <r>
       <rPr>
@@ -195,6 +196,9 @@
     <t xml:space="preserve">TAMIYA</t>
   </si>
   <si>
+    <t xml:space="preserve">tbm_item</t>
+  </si>
+  <si>
     <t xml:space="preserve">入出庫分類</t>
   </si>
   <si>
@@ -250,6 +254,30 @@
   </si>
   <si>
     <t xml:space="preserve">ログアウト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハセガワ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/750</t>
   </si>
 </sst>
 </file>
@@ -425,8 +453,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -501,6 +529,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF808080"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G2"/>
@@ -571,6 +600,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G7"/>
@@ -628,42 +658,42 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -797,16 +827,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="8.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.99"/>
@@ -824,7 +853,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -906,6 +935,11 @@
       </c>
       <c r="S2" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -945,22 +979,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1015,12 +1049,12 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1056,16 +1090,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1076,10 +1110,10 @@
         <v>1234567890</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -1087,30 +1121,192 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/document/制作物_DB_案.xlsx
+++ b/document/制作物_DB_案.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve">TAMIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">検索条件</t>
   </si>
   <si>
     <t xml:space="preserve">tbm_item</t>
@@ -319,12 +322,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -361,7 +370,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,6 +380,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,7 +843,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,7 +872,7 @@
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -868,7 +881,7 @@
       <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -886,7 +899,7 @@
       <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -937,9 +950,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -979,22 +1018,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1049,12 +1088,12 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1090,16 +1129,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1110,10 +1149,10 @@
         <v>1234567890</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -1121,30 +1160,30 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1173,10 +1212,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1196,7 +1235,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>48</v>
@@ -1219,10 +1258,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
@@ -1242,10 +1281,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0</v>
@@ -1265,10 +1304,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
@@ -1288,10 +1327,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1</v>
